--- a/target/classes/excel/sel_output.xlsx
+++ b/target/classes/excel/sel_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100C791-1784-4AA3-BDC8-9C99F1C7D275}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83F093-872A-4C20-9E42-FE4F2A854FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>SirAlwaid</author>
+    <author/>
+    <author>Author</author>
   </authors>
-  <commentList/>
+  <commentList>
+    <comment ref="C1" authorId="1">
+      <text>
+        <t>jx:each(lastCell='C1' items='u1_col1' var='u1_col1' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1">
+      <text>
+        <t>jx:each(lastCell='D1' items='u2_col2' var='u2_col2' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <t>jx:each(lastCell='E1' items='u1_col5' var='u1_col5' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="A1" authorId="1">
+      <text>
+        <t>jx:area(lastCell='E1)</t>
+      </text>
+    </comment>
+  </commentList>
 </comments>
 </file>
 
@@ -59,26 +81,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,6 +127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,32 +395,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.0" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A2" s="0"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="0"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/target/classes/excel/sel_output.xlsx
+++ b/target/classes/excel/sel_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83F093-872A-4C20-9E42-FE4F2A854FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269B291-0D66-4E9A-9E87-BBAC73A0E51A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,33 +30,12 @@
     <author/>
     <author>Author</author>
   </authors>
-  <commentList>
-    <comment ref="C1" authorId="1">
-      <text>
-        <t>jx:each(lastCell='C1' items='u1_col1' var='u1_col1' direction='DOWN')</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <t>jx:each(lastCell='D1' items='u2_col2' var='u2_col2' direction='DOWN')</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
-      <text>
-        <t>jx:each(lastCell='E1' items='u1_col5' var='u1_col5' direction='DOWN')</t>
-      </text>
-    </comment>
-    <comment ref="A1" authorId="1">
-      <text>
-        <t>jx:area(lastCell='E1)</t>
-      </text>
-    </comment>
-  </commentList>
+  <commentList/>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>${sup}</t>
   </si>
@@ -74,6 +53,12 @@
   </si>
   <si>
     <t>${u1_col5}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TESTO 2</t>
   </si>
 </sst>
 </file>
@@ -396,36 +381,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A1" s="0"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A2" s="0"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A3" s="0"/>
+      <c r="C3" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>-2.13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="C5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>-3.14</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="C6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>-4.15</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>-12.16</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="C8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>-13.0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="C9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>-14.01</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="true">
+      <c r="C10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>-35.02</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="C11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>-55.03</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="C12" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>-121.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="C13" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="C14" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/sel_output.xlsx
+++ b/target/classes/excel/sel_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269B291-0D66-4E9A-9E87-BBAC73A0E51A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB34FC-17A9-4CDA-AB9D-3FE102CA25AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>${sup}</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>${u1_col5}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TESTO 2</t>
   </si>
 </sst>
 </file>
@@ -381,151 +375,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
-    <col min="5" max="5" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A1" s="0"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A2" s="0"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="0"/>
-      <c r="C3" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.0" customHeight="true">
-      <c r="C4" t="n" s="0">
-        <v>1.0</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
-      <c r="D4" t="n" s="0">
-        <v>-2.13</v>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>7</v>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
-    </row>
-    <row r="5" ht="15.0" customHeight="true">
-      <c r="C5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>-3.14</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="true">
-      <c r="C6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>-4.15</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="true">
-      <c r="C7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>-12.16</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="true">
-      <c r="C8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>-13.0</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="15.0" customHeight="true">
-      <c r="C9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>-14.01</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="true">
-      <c r="C10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>-35.02</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="15.0" customHeight="true">
-      <c r="C11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>-55.03</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="15.0" customHeight="true">
-      <c r="C12" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>-121.0</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="C13" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="C14" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>7</v>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
